--- a/resources/experiment 1/metrics/R2/incidence/Angina (INC).xlsx
+++ b/resources/experiment 1/metrics/R2/incidence/Angina (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8390218154317038</v>
+        <v>0.769784967280688</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8414483731759862</v>
+        <v>0.7690550063412681</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8414483731759862</v>
+        <v>0.7219024138625114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9576819771272905</v>
+        <v>0.7675018516749116</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9576819771272905</v>
+        <v>0.7706067448399195</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9576819771272905</v>
+        <v>0.7816142035602641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7913625954935664</v>
+        <v>0.7699470540242878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7913625954935664</v>
+        <v>0.8460191610583662</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7913625954935664</v>
+        <v>0.8033925484733374</v>
       </c>
     </row>
   </sheetData>
